--- a/2022-03-21 comparison.xlsx
+++ b/2022-03-21 comparison.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjornarl\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjornarl\repos\maxsattrainscheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02278861-2217-4974-B1BF-28F8712E413C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F805DDCF-4195-44FA-A709-B369B9704728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9915" yWindow="2565" windowWidth="28800" windowHeight="15435" xr2:uid="{41F7FBF7-06AF-491D-8068-F44E73E43ACB}"/>
+    <workbookView xWindow="9600" yWindow="2745" windowWidth="28800" windowHeight="15435" xr2:uid="{41F7FBF7-06AF-491D-8068-F44E73E43ACB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +481,7 @@
     <col min="8" max="8" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
